--- a/xlsx/維基導遊_intext.xlsx
+++ b/xlsx/維基導遊_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Wiki</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_維基導遊</t>
+    <t>体育运动_体育运动_伊朗_維基導遊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%9F%BA%E9%87%91%E4%BC%9A</t>
